--- a/Dane/Klasy/1b.xlsx
+++ b/Dane/Klasy/1b.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Klasy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\Klasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929C2F7-9782-43CA-B66E-918BAFD1C38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB579E8A-64B8-4CC2-A2A8-D0014B2C76F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Nazwa</t>
   </si>
@@ -34,31 +47,118 @@
     <t>Sala</t>
   </si>
   <si>
-    <t>Anna Pol</t>
-  </si>
-  <si>
-    <t>Adam Mat</t>
-  </si>
-  <si>
-    <t>Ewa Ang</t>
-  </si>
-  <si>
-    <t>Jerzy Rel</t>
-  </si>
-  <si>
-    <t>Pol 1b</t>
-  </si>
-  <si>
-    <t>Mat 1b</t>
-  </si>
-  <si>
-    <t>Ang 1b</t>
-  </si>
-  <si>
-    <t>Rel 1b</t>
-  </si>
-  <si>
-    <t>3, 4</t>
+    <t>Wolcz Jolanta, Lidia Pawlowska</t>
+  </si>
+  <si>
+    <t>Bieniek Malgorzata, Drozewska Ludmila, Ruta Aleksandra, Ujda Malgorzata, Roczniak Malgorzata</t>
+  </si>
+  <si>
+    <t>Damian Babicki, Kaczmarski Leszek, Kajpust Tomasz, Pamuła Bogdan, Skiba Maria, Trygar Aleksandra</t>
+  </si>
+  <si>
+    <t>Przybylski Adam, Żywczyk Anna, Wołoszynek Edyta, Wierzbicka Ewa, Drobny Elżbieta, Długosz Barbara</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4</t>
+  </si>
+  <si>
+    <t>Kamila Borowicz</t>
+  </si>
+  <si>
+    <t>Godek Piotr, Gorczyca Bogusława, Muciek Barbara, Oleś Irena</t>
+  </si>
+  <si>
+    <t>Zawadzki Konrad, Furman Aneta</t>
+  </si>
+  <si>
+    <t>Cecuła Piotr, Kula Sebastian, Pieróg Barbara</t>
+  </si>
+  <si>
+    <t>Andrzej Wnuk, Lidia Pawlowska</t>
+  </si>
+  <si>
+    <t>35, 49</t>
+  </si>
+  <si>
+    <t>Biłogras Maciej, Miazga Anna, Świderska Grażyna</t>
+  </si>
+  <si>
+    <t>Kawa Jolanta</t>
+  </si>
+  <si>
+    <t>Rożek Waldemar, Świderski Zygmunt, Szabat Tomasz, Pamuła Wojciech, Drąg Stanisław, Łączek Anna, Maczkowska Mirosława</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44, 16, 18, 48, 19, 43, 19, 31, 40, 42, 32, 24, 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">40, 43, 10, 23, 29, 39, 45, 19,  </t>
+  </si>
+  <si>
+    <t>32, 12, 25, 13, 37, 36, 24, 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9, 43, 26, 24, 44, 31, 19, 20, 29, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20, 26, 23, 39, </t>
+  </si>
+  <si>
+    <t>39, 37, 38, 13</t>
+  </si>
+  <si>
+    <t>Fiz 1B</t>
+  </si>
+  <si>
+    <t>His 1B</t>
+  </si>
+  <si>
+    <t>WF 1B</t>
+  </si>
+  <si>
+    <t>Mat 1B</t>
+  </si>
+  <si>
+    <t>Pol 1B</t>
+  </si>
+  <si>
+    <t>His i ter 1B</t>
+  </si>
+  <si>
+    <t>Niemc 1B</t>
+  </si>
+  <si>
+    <t>Ang 1B</t>
+  </si>
+  <si>
+    <t>Rel 1B</t>
+  </si>
+  <si>
+    <t>Geo 1B</t>
+  </si>
+  <si>
+    <t>Bio 1B</t>
+  </si>
+  <si>
+    <t>Inf 1B</t>
+  </si>
+  <si>
+    <t>Chem 1B</t>
+  </si>
+  <si>
+    <t>EDB 1B</t>
+  </si>
+  <si>
+    <t>Muz 1B</t>
+  </si>
+  <si>
+    <t>Plast 1C</t>
+  </si>
+  <si>
+    <t>Biłogras Jolanta, Gazda Beata</t>
+  </si>
+  <si>
+    <t>Gajda Bożena, Gołojuch Małgorzata, Mazurkiewicz Wiesław</t>
   </si>
 </sst>
 </file>
@@ -918,17 +1018,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,58 +1047,203 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Dane/Klasy/1b.xlsx
+++ b/Dane/Klasy/1b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\Klasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB579E8A-64B8-4CC2-A2A8-D0014B2C76F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF30402-FF29-4505-B718-F15015AACDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
@@ -92,18 +92,9 @@
     <t xml:space="preserve">44, 16, 18, 48, 19, 43, 19, 31, 40, 42, 32, 24, 45 </t>
   </si>
   <si>
-    <t xml:space="preserve">40, 43, 10, 23, 29, 39, 45, 19,  </t>
-  </si>
-  <si>
     <t>32, 12, 25, 13, 37, 36, 24, 17</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 43, 26, 24, 44, 31, 19, 20, 29, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20, 26, 23, 39, </t>
-  </si>
-  <si>
     <t>39, 37, 38, 13</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>Gajda Bożena, Gołojuch Małgorzata, Mazurkiewicz Wiesław</t>
+  </si>
+  <si>
+    <t>40, 43, 10, 23, 29, 39, 45, 19</t>
+  </si>
+  <si>
+    <t>9, 43, 26, 24, 44, 31, 19, 20, 29</t>
+  </si>
+  <si>
+    <t>20, 26, 23, 39</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1056,12 +1056,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -1110,12 +1110,12 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1159,35 +1159,35 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1210,12 +1210,12 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
